--- a/v1/p_value_important_features.xlsx
+++ b/v1/p_value_important_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mudu605/Desktop/topic_5_scaling/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C76BE-685C-BD43-9DC4-6577E046AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327DE60A-65E3-AC42-85E2-260F980C332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="40760" windowHeight="27400" activeTab="10" xr2:uid="{41EA1430-ADFC-464D-941E-A033716A6BE1}"/>
+    <workbookView xWindow="-200" yWindow="500" windowWidth="40760" windowHeight="27380" activeTab="10" xr2:uid="{41EA1430-ADFC-464D-941E-A033716A6BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Latitude" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="32">
   <si>
     <t>Latitude</t>
   </si>
@@ -138,10 +138,10 @@
     <t>Drainage area</t>
   </si>
   <si>
-    <t>log-pv-b</t>
+    <t>b</t>
   </si>
   <si>
-    <t>log-pv-z</t>
+    <t>b = coefficient</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -196,6 +196,10 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,19 +534,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0FBBCC-90D1-E345-BBD9-BA09B71D7165}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,16 +554,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -567,149 +574,182 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>-0.82899999999999996</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
+        <v>1198.63271732718</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.65</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
+        <v>28285.465464734702</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>-1.25</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
+        <v>19317.459157191901</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>-0.42699999999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
+        <v>5438.9023631359696</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.21</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>-0.82199999999999995</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
+        <v>689.17014195394802</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
+        <v>3.07179176243495</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.66</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.748</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>-0.68500000000000005</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
+        <v>2448.7491944400999</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>-0.68700000000000006</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
+        <v>3422.9545534642002</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>7.6100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>-2.06</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
+        <v>16487.513419483999</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>-0.61199999999999999</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
+        <v>18207.237954905901</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.311</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
@@ -720,40 +760,45 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D4B95-6463-CB40-9531-554C1124A165}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -761,226 +806,260 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>0.114</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="6">
+        <v>50.860821718583601</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
+        <v>13.1568578953966</v>
+      </c>
+      <c r="D5" s="4">
         <v>4.1099999999999996E-6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>9.0200000000000002E-3</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
+      <c r="C6" s="6">
+        <v>185.43090546915499</v>
       </c>
       <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>9.11E-2</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="6">
+        <v>1115.00926689025</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.128</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0.109</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="6">
+        <v>30.2408213475133</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>3.4200000000000002E-4</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>2.29E-2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
+      <c r="C9" s="6">
+        <v>6.2886133465084502</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.44500000000000001</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="6">
+        <v>181.89684254343001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>2.03E-4</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
+      <c r="C11" s="6">
+        <v>267.46677835341501</v>
       </c>
       <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.16</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>1.3000000000000001E-8</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
+      <c r="C12" s="6">
+        <v>8.54473436492977</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
+      <c r="C13" s="6">
+        <v>1859.47387556325</v>
       </c>
       <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,40 +1068,45 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575F8087-884E-6749-9798-D623F4F70286}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1030,230 +1114,260 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="6">
+        <v>48.378595750818</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>1.67E-2</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
+        <v>12.141931628629001</v>
+      </c>
+      <c r="D5" s="4">
         <v>2.2900000000000001E-4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>0.104</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
+      <c r="C6" s="6">
+        <v>181.15136529450501</v>
       </c>
       <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>1.35E-2</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="6">
+        <v>1083.43666298064</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8">
+        <v>29.471507696441801</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
+      <c r="C9" s="6">
+        <v>6.5899579576220804</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.60199999999999998</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="6">
+        <v>175.89227885797899</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
+      <c r="C11" s="6">
+        <v>259.74543334965102</v>
       </c>
       <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
+      <c r="C12" s="6">
+        <v>8.4247760708685995</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.76</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
+      <c r="C13" s="6">
+        <v>1804.0326703062599</v>
       </c>
       <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>3.56E-2</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,15 +1376,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD251E50-F90D-5A4E-8EEB-13DED8D15F8A}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1278,16 +1395,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1295,149 +1415,182 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
+        <v>2.44134890326306</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.22800000000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>1.61</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
+        <v>1.2595961032656399E-2</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>0.247</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
+        <v>66.803856902232795</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
+        <v>620.93189286908103</v>
+      </c>
+      <c r="D7" s="1">
         <v>4.06E-4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>0.76100000000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
+        <v>1.2188381041490599</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>0.29499999999999998</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
+        <v>1.7754567837802999</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.191</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
+        <v>16.293287607168299</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.113</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>1.2799999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>0.128</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
+        <v>158.65961545389001</v>
+      </c>
+      <c r="D11" s="1">
         <v>4.48E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
+        <v>4.54598738209204</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
+        <v>725.95491766687906</v>
+      </c>
+      <c r="D13" s="1">
         <v>4.4600000000000004E-3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>4.8500000000000001E-3</v>
       </c>
     </row>
@@ -1448,15 +1601,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB74FA6-B210-8E41-97D2-845C493A4A0E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1464,16 +1620,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1481,149 +1640,182 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>0.746</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
+        <v>6.28380656034021</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.122</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>1.31</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
+        <v>0.32071806227501298</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.53500000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>0.38</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>63.764838414030201</v>
+      </c>
+      <c r="D6" s="1">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6">
+        <v>638.75607520721599</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>5.2199999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>0.63800000000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
+        <v>5.1287385920897197</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>5.79E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
+        <v>9.59546531238475</v>
+      </c>
+      <c r="D9" s="1">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
+        <v>40.679340032653897</v>
+      </c>
+      <c r="D10" s="1">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>1.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>0.22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
+        <v>144.950442687969</v>
+      </c>
+      <c r="D11" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.106</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>-0.111</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
+        <v>12.139998469249701</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>0.28599999999999998</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
+        <v>834.81090859331903</v>
+      </c>
+      <c r="D13" s="1">
         <v>3.48E-4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>1.75E-3</v>
       </c>
     </row>
@@ -1634,15 +1826,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47FE18B-4373-E448-BF90-4D1BFE72B2F0}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1650,16 +1845,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1667,149 +1865,182 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
+        <v>2.3125947748344702</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.315</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1.58E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>2.27</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
+        <v>1.8622374057188699E-2</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.71299999999999997</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>0.47</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
+        <v>48.7134359101846</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>7.7700000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>0.32700000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
+        <v>434.940268687485</v>
+      </c>
+      <c r="D7" s="1">
         <v>2.0600000000000002E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
+        <v>2.2045502595016702</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.34</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>-0.16200000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
+        <v>10.234347792701</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.223</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>0.84499999999999997</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
+        <v>16.414246369231499</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.192</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
+        <v>149.619230774653</v>
+      </c>
+      <c r="D11" s="1">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>-9.7199999999999995E-2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
+        <v>11.4715558919219</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.312</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>0.42</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
+        <v>559.45845098813402</v>
+      </c>
+      <c r="D13" s="1">
         <v>1.52E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>2.7799999999999999E-3</v>
       </c>
     </row>
@@ -1820,15 +2051,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCF8234-898E-C842-9629-65A09D8AA742}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1836,16 +2070,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1853,13 +2090,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1867,13 +2107,16 @@
         <v>0.52</v>
       </c>
       <c r="C4" s="1">
+        <v>4.4708892482973903</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>5.4799999999999996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1881,41 +2124,50 @@
         <v>1.18</v>
       </c>
       <c r="C5" s="1">
+        <v>4.5632147714062501E-2</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>0.26</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
+        <v>54.601595237052898</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.157</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
+        <v>580.06443167812301</v>
+      </c>
+      <c r="D7" s="1">
         <v>6.2E-4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1923,13 +2175,16 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="C8" s="1">
+        <v>4.2471846236550697</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1937,65 +2192,80 @@
         <v>-1.1900000000000001E-2</v>
       </c>
       <c r="C9" s="1">
+        <v>6.7494965717195496</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>0.38800000000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
+        <v>29.751117692209299</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.153</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>6.9899999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>0.108</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
+        <v>163.24397740173501</v>
+      </c>
+      <c r="D11" s="1">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>-0.113</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
+        <v>14.8839793139992</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>0.193</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
+        <v>750.84258550078096</v>
+      </c>
+      <c r="D13" s="1">
         <v>6.94E-3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>9.7599999999999996E-3</v>
       </c>
     </row>
@@ -2006,40 +2276,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344549F0-9559-0C43-BC7E-FB44CA52AB28}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2047,226 +2322,260 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>0.72099999999999997</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
+        <v>2.1254305371220998</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.42899999999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>1.03E-2</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>1.51</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
+        <v>1.55097467700425E-2</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.72099999999999997</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>0.54400000000000004</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
+        <v>16.225536494679002</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
+        <v>389.06320847781802</v>
+      </c>
+      <c r="D7" s="3">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
+        <v>2.0622074530609402</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.46100000000000002</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>-0.152</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
+        <v>12.7283064799055</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.432</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>0.58599999999999997</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>0.54700000000000004</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
+        <v>16.351585111824502</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.33</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
+        <v>75.579780704565593</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.23400000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>0.123</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>0.38300000000000001</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
+        <v>1.50418720974752</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.51</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>0.248</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
+        <v>405.54258994273403</v>
+      </c>
+      <c r="D13" s="3">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>7.77E-3</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2275,40 +2584,46 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B240AC-8BB3-D440-93CF-28BAAB4FADE8}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2316,226 +2631,260 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>0.33</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
+        <v>27.296832540656201</v>
+      </c>
+      <c r="D4" s="3">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>2.23E-2</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>0.81</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
+        <v>2.4549602984766601</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>0.185</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
+        <v>128.48192530134099</v>
+      </c>
+      <c r="D6" s="3">
         <v>3.3300000000000002E-4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>8.09E-2</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="6">
+        <v>949.61140443969703</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0.36299999999999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
+        <v>14.9160162221202</v>
+      </c>
+      <c r="D8" s="3">
         <v>7.0600000000000003E-3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>1.72E-2</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>0.13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
+        <v>4.7792430718663796</v>
+      </c>
+      <c r="D9" s="3">
         <v>1.1199999999999999E-3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>0.26700000000000002</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
+        <v>109.259455478992</v>
+      </c>
+      <c r="D10" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
+      <c r="C11" s="6">
+        <v>232.87247746049599</v>
       </c>
       <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
+        <v>5.9774851807137299</v>
+      </c>
+      <c r="D12" s="3">
         <v>7.0400000000000003E-3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>0.128</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
+      <c r="C13" s="6">
+        <v>1450.5050973272801</v>
       </c>
       <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2544,40 +2893,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566124B-7866-3845-8557-E751385E8A56}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2585,226 +2939,260 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
+      <c r="C4" s="5">
+        <v>29.649666285015002</v>
       </c>
       <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>0.35399999999999998</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
+        <v>5.6315009250824701</v>
+      </c>
+      <c r="D5" s="3">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
+      <c r="C6" s="5">
+        <v>130.12247695610699</v>
       </c>
       <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="5">
+        <v>928.48410153699194</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>1.37E-2</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0.184</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
+        <v>19.9410299454442</v>
+      </c>
+      <c r="D8" s="3">
         <v>2.8400000000000002E-4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>-1.6E-2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
+      <c r="C9" s="5">
+        <v>6.66103168016026</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.84199999999999997</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>0.184</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
+      <c r="C10" s="5">
+        <v>117.393768667027</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>0.11</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
+      <c r="C11" s="5">
+        <v>201.80871222511701</v>
       </c>
       <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>1.17E-2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
+        <v>8.3516285740584202</v>
+      </c>
+      <c r="D12" s="3">
         <v>6.9099999999999999E-4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>0.104</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
+      <c r="C13" s="5">
+        <v>1435.6269636864099</v>
       </c>
       <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>4.2500000000000003E-3</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2813,40 +3201,46 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCD177D-FFAA-E44C-91FD-53FBA77AF55B}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2854,226 +3248,260 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="6">
+        <v>62.707458908123201</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>2.4700000000000001E-6</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="6">
+        <v>17.567195167421101</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>2.51E-5</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>4.58E-2</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
+      <c r="C6" s="6">
+        <v>199.96070542046701</v>
       </c>
       <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="6">
+        <v>1169.18029700842</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="6">
+        <v>36.714570304269003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>1.8E-5</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>2.7200000000000001E-9</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
+      <c r="C9" s="6">
+        <v>4.4669078832759004</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="6">
+        <v>215.18057910870601</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>2.4399999999999999E-6</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>1.4399999999999999E-7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
+        <v>121.54962176790499</v>
+      </c>
+      <c r="D11" s="3">
         <v>1.1900000000000001E-4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>5.1399999999999997E-8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
+        <v>4.26279348956247</v>
+      </c>
+      <c r="D12" s="3">
         <v>1.01E-4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
+      <c r="C13" s="6">
+        <v>2001.8262684402901</v>
       </c>
       <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>1.03E-2</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
